--- a/Navne.xlsx
+++ b/Navne.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SéamusPeareBartholdy\Documents\GitHub\AC-Horsens\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SéamusPeareBartholdy\Documents\GitHub\ACH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3211D21D-08EC-4F6A-808D-D85CE39A33A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AE315D-C435-4332-BA0A-6B5BE743C4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,9 +120,6 @@
     <t>J. Beluli</t>
   </si>
   <si>
-    <t>J. Belulii</t>
-  </si>
-  <si>
     <t>J. Kirkel</t>
   </si>
   <si>
@@ -613,6 +610,9 @@
   </si>
   <si>
     <t>Alfred Kragh Bastholm</t>
+  </si>
+  <si>
+    <t>Je. Beluli</t>
   </si>
 </sst>
 </file>
@@ -939,7 +939,7 @@
   <dimension ref="A1:D141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -957,7 +957,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -974,7 +974,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -985,29 +985,29 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" t="s">
         <v>119</v>
       </c>
-      <c r="C4" t="s">
-        <v>120</v>
-      </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" t="s">
         <v>119</v>
       </c>
-      <c r="C5" t="s">
-        <v>120</v>
-      </c>
       <c r="D5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -1021,7 +1021,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -1035,7 +1035,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -1049,7 +1049,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -1060,7 +1060,7 @@
         <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -1071,7 +1071,7 @@
         <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -1085,7 +1085,7 @@
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -1093,10 +1093,10 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>194</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -1104,10 +1104,10 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>194</v>
       </c>
       <c r="D13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -1118,10 +1118,10 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -1132,10 +1132,10 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -1146,10 +1146,10 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -1157,10 +1157,10 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -1168,10 +1168,10 @@
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -1179,10 +1179,10 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -1190,10 +1190,10 @@
         <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -1201,10 +1201,10 @@
         <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -1215,10 +1215,10 @@
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -1229,10 +1229,10 @@
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -1240,10 +1240,10 @@
         <v>10</v>
       </c>
       <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" t="s">
         <v>37</v>
-      </c>
-      <c r="D24" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -1251,1211 +1251,1211 @@
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" t="s">
         <v>117</v>
       </c>
-      <c r="C28" t="s">
-        <v>118</v>
-      </c>
       <c r="D28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" t="s">
         <v>151</v>
       </c>
-      <c r="C37" t="s">
-        <v>152</v>
-      </c>
       <c r="D37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" t="s">
         <v>151</v>
       </c>
-      <c r="C38" t="s">
-        <v>152</v>
-      </c>
       <c r="D38" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D43" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D45" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C46" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C47" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D47" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D49" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D53" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D55" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C57" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C59" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C60" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D60" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C61" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C62" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C63" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D63" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C64" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D64" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C65" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D65" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C66" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C67" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D67" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C68" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D68" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C69" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D69" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C70" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D70" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D71" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D72" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C73" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D73" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D74" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C75" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D75" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C76" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D76" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C77" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D77" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C78" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D78" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
+        <v>120</v>
+      </c>
+      <c r="C79" t="s">
         <v>121</v>
       </c>
-      <c r="C79" t="s">
-        <v>122</v>
-      </c>
       <c r="D79" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
+        <v>120</v>
+      </c>
+      <c r="C80" t="s">
         <v>121</v>
       </c>
-      <c r="C80" t="s">
-        <v>122</v>
-      </c>
       <c r="D80" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
+        <v>98</v>
+      </c>
+      <c r="C81" t="s">
+        <v>122</v>
+      </c>
+      <c r="D81" t="s">
         <v>99</v>
-      </c>
-      <c r="C81" t="s">
-        <v>123</v>
-      </c>
-      <c r="D81" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
+        <v>123</v>
+      </c>
+      <c r="C82" t="s">
         <v>124</v>
       </c>
-      <c r="C82" t="s">
-        <v>125</v>
-      </c>
       <c r="D82" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
+        <v>123</v>
+      </c>
+      <c r="C83" t="s">
         <v>124</v>
       </c>
-      <c r="C83" t="s">
-        <v>125</v>
-      </c>
       <c r="D83" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
+        <v>125</v>
+      </c>
+      <c r="C84" t="s">
         <v>126</v>
       </c>
-      <c r="C84" t="s">
-        <v>127</v>
-      </c>
       <c r="D84" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
+        <v>127</v>
+      </c>
+      <c r="C85" t="s">
         <v>128</v>
       </c>
-      <c r="C85" t="s">
-        <v>129</v>
-      </c>
       <c r="D85" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
+        <v>127</v>
+      </c>
+      <c r="C86" t="s">
         <v>128</v>
       </c>
-      <c r="C86" t="s">
-        <v>129</v>
-      </c>
       <c r="D86" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C87" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D87" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C88" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D88" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C89" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D89" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C90" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D90" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C91" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D91" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C93" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D93" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C94" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D94" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C95" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D95" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C96" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D96" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C97" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D97" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C98" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D98" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C99" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D99" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C100" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D100" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C101" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D101" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C102" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D102" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C103" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D103" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D104" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D105" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D106" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D107" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D108" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D109" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D111" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D112" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D113" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D114" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D115" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D116" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D117" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D118" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D119" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D120" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D121" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
+        <v>169</v>
+      </c>
+      <c r="D122" t="s">
         <v>170</v>
-      </c>
-      <c r="D122" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D123" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D124" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D125" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D126" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D127" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D128" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D129" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D130" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D131" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D132" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D133" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D134" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D135" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D136" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D137" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D138" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D139" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
+        <v>186</v>
+      </c>
+      <c r="D140" t="s">
         <v>187</v>
-      </c>
-      <c r="D140" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D141" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/Navne.xlsx
+++ b/Navne.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SéamusPeareBartholdy\Documents\GitHub\ACH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AE315D-C435-4332-BA0A-6B5BE743C4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29799B59-8FAE-42B7-B39C-9D4321F63239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="197">
   <si>
     <t>Spillere</t>
   </si>
@@ -613,6 +613,12 @@
   </si>
   <si>
     <t>Je. Beluli</t>
+  </si>
+  <si>
+    <t>Christian Levy</t>
+  </si>
+  <si>
+    <t>Alexander Boisen</t>
   </si>
 </sst>
 </file>
@@ -936,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D141"/>
+  <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1026,13 +1032,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
+        <v>195</v>
       </c>
       <c r="D7" t="s">
         <v>37</v>
@@ -1049,18 +1049,21 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>189</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -1071,29 +1074,29 @@
         <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>189</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>194</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
         <v>37</v>
@@ -1107,21 +1110,18 @@
         <v>194</v>
       </c>
       <c r="D13" t="s">
-        <v>189</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>194</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -1135,29 +1135,32 @@
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>189</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
         <v>37</v>
@@ -1171,26 +1174,26 @@
         <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>189</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>152</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="D20" t="s">
         <v>37</v>
@@ -1204,21 +1207,18 @@
         <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>189</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -1232,18 +1232,21 @@
         <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>189</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>37</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -1254,18 +1257,18 @@
         <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>189</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="D26" t="s">
-        <v>37</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -1276,29 +1279,26 @@
         <v>66</v>
       </c>
       <c r="D27" t="s">
-        <v>189</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="D28" t="s">
-        <v>37</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" t="s">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="D29" t="s">
         <v>37</v>
@@ -1306,13 +1306,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D30" t="s">
         <v>37</v>
@@ -1329,32 +1329,32 @@
         <v>68</v>
       </c>
       <c r="D31" t="s">
-        <v>189</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D32" t="s">
-        <v>37</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D33" t="s">
         <v>37</v>
@@ -1371,26 +1371,29 @@
         <v>69</v>
       </c>
       <c r="D34" t="s">
-        <v>189</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="B35" t="s">
+        <v>60</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D35" t="s">
-        <v>37</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D36" t="s">
         <v>37</v>
@@ -1398,10 +1401,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>151</v>
+        <v>71</v>
       </c>
       <c r="D37" t="s">
         <v>37</v>
@@ -1415,40 +1418,40 @@
         <v>151</v>
       </c>
       <c r="D38" t="s">
-        <v>189</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" t="s">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="C39" t="s">
-        <v>72</v>
+        <v>151</v>
       </c>
       <c r="D39" t="s">
-        <v>37</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="B40" t="s">
+        <v>63</v>
       </c>
       <c r="C40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D40" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D41" t="s">
         <v>57</v>
@@ -1456,13 +1459,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D42" t="s">
         <v>57</v>
@@ -1479,21 +1479,21 @@
         <v>75</v>
       </c>
       <c r="D43" t="s">
-        <v>189</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D44" t="s">
-        <v>57</v>
+        <v>189</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -1507,21 +1507,21 @@
         <v>76</v>
       </c>
       <c r="D45" t="s">
-        <v>189</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C46" t="s">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="D46" t="s">
-        <v>57</v>
+        <v>189</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -1535,18 +1535,21 @@
         <v>154</v>
       </c>
       <c r="D47" t="s">
-        <v>189</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>61</v>
       </c>
       <c r="C48" t="s">
-        <v>78</v>
+        <v>154</v>
       </c>
       <c r="D48" t="s">
-        <v>57</v>
+        <v>189</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -1557,26 +1560,26 @@
         <v>78</v>
       </c>
       <c r="D49" t="s">
-        <v>189</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D50" t="s">
-        <v>57</v>
+        <v>189</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D51" t="s">
         <v>57</v>
@@ -1584,10 +1587,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>54</v>
-      </c>
-      <c r="C52" t="s">
-        <v>81</v>
+        <v>196</v>
       </c>
       <c r="D52" t="s">
         <v>57</v>
@@ -1595,21 +1595,21 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D53" t="s">
-        <v>189</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="D54" t="s">
         <v>57</v>
@@ -1617,10 +1617,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="D55" t="s">
         <v>189</v>
@@ -1628,10 +1628,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="D56" t="s">
         <v>57</v>
@@ -1639,21 +1639,21 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>113</v>
+        <v>153</v>
       </c>
       <c r="D57" t="s">
-        <v>57</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D58" t="s">
         <v>57</v>
@@ -1661,10 +1661,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C59" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D59" t="s">
         <v>57</v>
@@ -1672,21 +1672,21 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C60" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D60" t="s">
-        <v>188</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C61" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D61" t="s">
         <v>57</v>
@@ -1694,32 +1694,32 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C62" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D62" t="s">
-        <v>57</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C63" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D63" t="s">
-        <v>188</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C64" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D64" t="s">
         <v>57</v>
@@ -1727,10 +1727,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C65" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D65" t="s">
         <v>188</v>
@@ -1738,10 +1738,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C66" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D66" t="s">
         <v>57</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C67" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D67" t="s">
         <v>188</v>
@@ -1760,10 +1760,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C68" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D68" t="s">
         <v>57</v>
@@ -1771,32 +1771,32 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C69" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D69" t="s">
-        <v>57</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C70" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D70" t="s">
-        <v>189</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C71" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D71" t="s">
         <v>57</v>
@@ -1804,10 +1804,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C72" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D72" t="s">
         <v>189</v>
@@ -1815,10 +1815,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D73" t="s">
         <v>57</v>
@@ -1826,21 +1826,21 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C74" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D74" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C75" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D75" t="s">
         <v>57</v>
@@ -1848,21 +1848,21 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C76" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D76" t="s">
-        <v>57</v>
+        <v>188</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C77" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D77" t="s">
         <v>57</v>
@@ -1870,10 +1870,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C78" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D78" t="s">
         <v>57</v>
@@ -1881,10 +1881,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="C79" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D79" t="s">
         <v>57</v>
@@ -1892,54 +1892,54 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="C80" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D80" t="s">
-        <v>189</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="C81" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D81" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C82" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D82" t="s">
-        <v>99</v>
+        <v>189</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="C83" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D83" t="s">
-        <v>188</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C84" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D84" t="s">
         <v>99</v>
@@ -1947,32 +1947,32 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C85" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D85" t="s">
-        <v>99</v>
+        <v>188</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C86" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D86" t="s">
-        <v>188</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C87" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D87" t="s">
         <v>99</v>
@@ -1980,10 +1980,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C88" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D88" t="s">
         <v>188</v>
@@ -1991,10 +1991,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C89" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D89" t="s">
         <v>99</v>
@@ -2002,10 +2002,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C90" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D90" t="s">
         <v>188</v>
@@ -2013,10 +2013,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C91" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D91" t="s">
         <v>99</v>
@@ -2024,21 +2024,21 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C92" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="D92" t="s">
-        <v>99</v>
+        <v>188</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C93" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D93" t="s">
         <v>99</v>
@@ -2046,10 +2046,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C94" t="s">
-        <v>134</v>
+        <v>31</v>
       </c>
       <c r="D94" t="s">
         <v>99</v>
@@ -2057,10 +2057,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C95" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D95" t="s">
         <v>99</v>
@@ -2068,21 +2068,21 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C96" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D96" t="s">
-        <v>188</v>
+        <v>99</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C97" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D97" t="s">
         <v>99</v>
@@ -2090,10 +2090,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C98" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D98" t="s">
         <v>188</v>
@@ -2101,10 +2101,10 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C99" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D99" t="s">
         <v>99</v>
@@ -2112,32 +2112,32 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C100" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D100" t="s">
-        <v>99</v>
+        <v>188</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C101" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D101" t="s">
-        <v>188</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C102" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D102" t="s">
         <v>99</v>
@@ -2145,10 +2145,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C103" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D103" t="s">
         <v>188</v>
@@ -2156,31 +2156,37 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>155</v>
+        <v>149</v>
+      </c>
+      <c r="C104" t="s">
+        <v>139</v>
       </c>
       <c r="D104" t="s">
-        <v>170</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>156</v>
+        <v>149</v>
+      </c>
+      <c r="C105" t="s">
+        <v>139</v>
       </c>
       <c r="D105" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D106" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D107" t="s">
         <v>170</v>
@@ -2188,15 +2194,15 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D108" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D109" t="s">
         <v>170</v>
@@ -2204,7 +2210,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D110" t="s">
         <v>170</v>
@@ -2212,7 +2218,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D111" t="s">
         <v>170</v>
@@ -2220,7 +2226,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D112" t="s">
         <v>170</v>
@@ -2228,7 +2234,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D113" t="s">
         <v>170</v>
@@ -2236,7 +2242,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D114" t="s">
         <v>170</v>
@@ -2244,7 +2250,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D115" t="s">
         <v>170</v>
@@ -2252,7 +2258,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D116" t="s">
         <v>170</v>
@@ -2260,7 +2266,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="D117" t="s">
         <v>170</v>
@@ -2268,15 +2274,15 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="D118" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D119" t="s">
         <v>170</v>
@@ -2284,15 +2290,15 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="D120" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="D121" t="s">
         <v>170</v>
@@ -2300,7 +2306,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D122" t="s">
         <v>170</v>
@@ -2308,31 +2314,31 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D123" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D124" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D125" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D126" t="s">
         <v>187</v>
@@ -2340,7 +2346,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D127" t="s">
         <v>187</v>
@@ -2348,7 +2354,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D128" t="s">
         <v>187</v>
@@ -2356,7 +2362,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D129" t="s">
         <v>187</v>
@@ -2364,7 +2370,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D130" t="s">
         <v>187</v>
@@ -2372,7 +2378,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D131" t="s">
         <v>187</v>
@@ -2380,7 +2386,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D132" t="s">
         <v>187</v>
@@ -2388,7 +2394,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="D133" t="s">
         <v>187</v>
@@ -2396,7 +2402,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D134" t="s">
         <v>187</v>
@@ -2404,7 +2410,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="D135" t="s">
         <v>187</v>
@@ -2412,7 +2418,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D136" t="s">
         <v>187</v>
@@ -2420,7 +2426,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D137" t="s">
         <v>187</v>
@@ -2428,7 +2434,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D138" t="s">
         <v>187</v>
@@ -2436,7 +2442,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D139" t="s">
         <v>187</v>
@@ -2444,7 +2450,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D140" t="s">
         <v>187</v>
@@ -2452,9 +2458,25 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
+        <v>185</v>
+      </c>
+      <c r="D141" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>186</v>
+      </c>
+      <c r="D142" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
         <v>190</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D143" t="s">
         <v>187</v>
       </c>
     </row>

--- a/Navne.xlsx
+++ b/Navne.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SéamusPeareBartholdy\Documents\GitHub\ACH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29799B59-8FAE-42B7-B39C-9D4321F63239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6457E0CF-49F2-40C5-ACB7-BA1F0BAEED7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="190">
   <si>
     <t>Spillere</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Victor Laursen</t>
   </si>
   <si>
-    <t>Nikolaj Klausen</t>
-  </si>
-  <si>
     <t>Selius Gindeberg</t>
   </si>
   <si>
@@ -162,12 +159,6 @@
     <t>Lucas Mølholm</t>
   </si>
   <si>
-    <t>Jacob Madsen</t>
-  </si>
-  <si>
-    <t>Nikolaj Larsen</t>
-  </si>
-  <si>
     <t>Villads Gindeberg</t>
   </si>
   <si>
@@ -219,9 +210,6 @@
     <t>10 Osmani</t>
   </si>
   <si>
-    <t>16 N. Larsen</t>
-  </si>
-  <si>
     <t>17 Munch</t>
   </si>
   <si>
@@ -243,12 +231,6 @@
     <t>L. Mølholm</t>
   </si>
   <si>
-    <t>J. Madsen</t>
-  </si>
-  <si>
-    <t>N. Larsen</t>
-  </si>
-  <si>
     <t>V. Gindeberg</t>
   </si>
   <si>
@@ -484,9 +466,6 @@
   </si>
   <si>
     <t>Z. Hussein</t>
-  </si>
-  <si>
-    <t>N. Klausen</t>
   </si>
   <si>
     <t>E. Strandgaard</t>
@@ -942,10 +921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D143"/>
+  <dimension ref="A1:D140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -963,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -974,13 +953,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -988,32 +967,32 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D5" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -1021,49 +1000,49 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -1071,10 +1050,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -1082,10 +1061,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -1093,35 +1072,35 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D14" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -1129,13 +1108,13 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -1143,13 +1122,13 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -1157,96 +1136,96 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>152</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
       </c>
       <c r="C22" t="s">
         <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>189</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
         <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>189</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -1254,54 +1233,57 @@
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" t="s">
-        <v>37</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" t="s">
         <v>36</v>
-      </c>
-      <c r="D26" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D27" t="s">
-        <v>37</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="D28" t="s">
-        <v>189</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>116</v>
+        <v>38</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -1309,27 +1291,27 @@
         <v>39</v>
       </c>
       <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" t="s">
         <v>64</v>
       </c>
-      <c r="C30" t="s">
-        <v>67</v>
-      </c>
       <c r="D30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D31" t="s">
-        <v>37</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -1337,13 +1319,13 @@
         <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D32" t="s">
-        <v>189</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -1351,85 +1333,82 @@
         <v>41</v>
       </c>
       <c r="B33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" t="s">
         <v>65</v>
       </c>
-      <c r="C33" t="s">
-        <v>77</v>
-      </c>
       <c r="D33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D34" t="s">
-        <v>37</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>42</v>
       </c>
-      <c r="B35" t="s">
-        <v>60</v>
-      </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D35" t="s">
-        <v>189</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="C36" t="s">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="D36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="D37" t="s">
-        <v>37</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="D38" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>151</v>
+        <v>68</v>
       </c>
       <c r="D39" t="s">
-        <v>189</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -1437,1047 +1416,1011 @@
         <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C40" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D40" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>56</v>
       </c>
       <c r="C41" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D41" t="s">
-        <v>57</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D42" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B43" t="s">
         <v>59</v>
       </c>
       <c r="C43" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D43" t="s">
-        <v>57</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C44" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="D44" t="s">
-        <v>189</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C45" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="D45" t="s">
-        <v>57</v>
+        <v>182</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D46" t="s">
-        <v>189</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>154</v>
+        <v>72</v>
       </c>
       <c r="D47" t="s">
-        <v>57</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="D48" t="s">
-        <v>189</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>51</v>
-      </c>
-      <c r="C49" t="s">
-        <v>78</v>
+        <v>189</v>
       </c>
       <c r="D49" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D50" t="s">
-        <v>189</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D51" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>196</v>
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>75</v>
       </c>
       <c r="D52" t="s">
-        <v>57</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D53" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="D54" t="s">
-        <v>57</v>
+        <v>182</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D55" t="s">
-        <v>189</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="C56" t="s">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="D56" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="C57" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="D57" t="s">
-        <v>189</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="C58" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="D58" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C59" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D59" t="s">
-        <v>57</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C60" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D60" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C61" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D61" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D62" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C63" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D63" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C64" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D64" t="s">
-        <v>57</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C65" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="D65" t="s">
-        <v>188</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C66" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="D66" t="s">
-        <v>57</v>
+        <v>181</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C67" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D67" t="s">
-        <v>188</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C68" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D68" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C69" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D69" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C70" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D70" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C71" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D71" t="s">
-        <v>57</v>
+        <v>182</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C72" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D72" t="s">
-        <v>189</v>
+        <v>54</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C73" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D73" t="s">
-        <v>57</v>
+        <v>181</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C74" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D74" t="s">
-        <v>189</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C75" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D75" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C76" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D76" t="s">
-        <v>188</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C77" t="s">
         <v>106</v>
       </c>
       <c r="D77" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="C78" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="D78" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="C79" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D79" t="s">
-        <v>57</v>
+        <v>182</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C80" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D80" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C81" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D81" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C82" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D82" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="C83" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D83" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C84" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D84" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C85" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D85" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C86" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D86" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C87" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D87" t="s">
-        <v>99</v>
+        <v>181</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C88" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D88" t="s">
-        <v>188</v>
+        <v>93</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C89" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D89" t="s">
-        <v>99</v>
+        <v>181</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C90" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D90" t="s">
-        <v>188</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C91" t="s">
-        <v>131</v>
+        <v>30</v>
       </c>
       <c r="D91" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C92" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D92" t="s">
-        <v>188</v>
+        <v>93</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C93" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D93" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C94" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="D94" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C95" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D95" t="s">
-        <v>99</v>
+        <v>181</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C96" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D96" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C97" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D97" t="s">
-        <v>99</v>
+        <v>181</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C98" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D98" t="s">
-        <v>188</v>
+        <v>93</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C99" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D99" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C100" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D100" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C101" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D101" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C102" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D102" t="s">
-        <v>99</v>
+        <v>181</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>148</v>
       </c>
-      <c r="C103" t="s">
-        <v>138</v>
-      </c>
       <c r="D103" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>149</v>
       </c>
-      <c r="C104" t="s">
-        <v>139</v>
-      </c>
       <c r="D104" t="s">
-        <v>99</v>
+        <v>163</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>149</v>
       </c>
-      <c r="C105" t="s">
-        <v>139</v>
-      </c>
       <c r="D105" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D106" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D107" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D108" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D109" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D110" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D111" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D112" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D113" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D114" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
+        <v>159</v>
+      </c>
+      <c r="D115" t="s">
         <v>163</v>
-      </c>
-      <c r="D115" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="D116" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="D117" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="D118" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="D119" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="D120" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="D121" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D122" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D123" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D124" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D125" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D126" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D127" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D128" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D129" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D130" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D131" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D132" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D133" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D134" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="D135" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
+        <v>176</v>
+      </c>
+      <c r="D136" t="s">
         <v>180</v>
-      </c>
-      <c r="D136" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D137" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D138" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D139" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D140" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
-        <v>185</v>
-      </c>
-      <c r="D141" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
-        <v>186</v>
-      </c>
-      <c r="D142" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
-        <v>190</v>
-      </c>
-      <c r="D143" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/Navne.xlsx
+++ b/Navne.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SéamusPeareBartholdy\Documents\GitHub\ACH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6457E0CF-49F2-40C5-ACB7-BA1F0BAEED7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D9DD57-86E5-47BC-95C6-F556BB4F0A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="176">
   <si>
     <t>Spillere</t>
   </si>
@@ -36,24 +36,12 @@
     <t>Player Name</t>
   </si>
   <si>
-    <t>Andreas Hermansen</t>
-  </si>
-  <si>
     <t>Trup</t>
   </si>
   <si>
-    <t>Angelo Nehme</t>
-  </si>
-  <si>
     <t>Anders Asmussen</t>
   </si>
   <si>
-    <t>Lukas Wagner</t>
-  </si>
-  <si>
-    <t>Jashar Beluli</t>
-  </si>
-  <si>
     <t>Jonas Kirkel</t>
   </si>
   <si>
@@ -90,42 +78,21 @@
     <t>20 Jonas Kirkel</t>
   </si>
   <si>
-    <t>2 Angelo</t>
-  </si>
-  <si>
-    <t>8 Jashar</t>
-  </si>
-  <si>
-    <t>37 Wagner</t>
-  </si>
-  <si>
     <t>A. Asmussen</t>
   </si>
   <si>
-    <t>A. Hermansen</t>
-  </si>
-  <si>
-    <t>A. Nehme</t>
-  </si>
-  <si>
     <t>E. Rosenberg</t>
   </si>
   <si>
     <t>F. Roslyng</t>
   </si>
   <si>
-    <t>J. Beluli</t>
-  </si>
-  <si>
     <t>J. Kirkel</t>
   </si>
   <si>
     <t>L. Larsen</t>
   </si>
   <si>
-    <t>L. Wagner</t>
-  </si>
-  <si>
     <t>N. Vestergaard</t>
   </si>
   <si>
@@ -147,9 +114,6 @@
     <t>Malthe Munch</t>
   </si>
   <si>
-    <t>Hjalte Toftegaard</t>
-  </si>
-  <si>
     <t>Søren Albrecht</t>
   </si>
   <si>
@@ -195,9 +159,6 @@
     <t>U17</t>
   </si>
   <si>
-    <t>9 Toftegaard</t>
-  </si>
-  <si>
     <t>13 Rinor</t>
   </si>
   <si>
@@ -220,9 +181,6 @@
   </si>
   <si>
     <t>M. Munch</t>
-  </si>
-  <si>
-    <t>H. Toftegaard</t>
   </si>
   <si>
     <t>M. Frederiksen</t>
@@ -921,10 +879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D140"/>
+  <dimension ref="A1:D134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD38"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -942,972 +900,957 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" t="s">
-        <v>113</v>
+        <v>174</v>
       </c>
       <c r="D5" t="s">
-        <v>182</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>188</v>
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>173</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>173</v>
       </c>
       <c r="D11" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>187</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>182</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>8</v>
       </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>182</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
         <v>22</v>
       </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
         <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
         <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D23" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="D24" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>182</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D27" t="s">
-        <v>182</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>110</v>
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" t="s">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="D30" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" t="s">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="D31" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D33" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D34" t="s">
-        <v>182</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D35" t="s">
-        <v>36</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>144</v>
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>145</v>
+        <v>56</v>
       </c>
       <c r="D36" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>144</v>
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>145</v>
+        <v>56</v>
       </c>
       <c r="D37" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="D38" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>35</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="D39" t="s">
-        <v>54</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D40" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D41" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" t="s">
         <v>59</v>
       </c>
-      <c r="C42" t="s">
-        <v>70</v>
-      </c>
       <c r="D42" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="D43" t="s">
-        <v>182</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="C44" t="s">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="D44" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="C45" t="s">
-        <v>147</v>
+        <v>61</v>
       </c>
       <c r="D45" t="s">
-        <v>182</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C46" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D46" t="s">
-        <v>54</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C47" t="s">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="D47" t="s">
-        <v>182</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C48" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="D48" t="s">
-        <v>54</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>189</v>
+        <v>41</v>
+      </c>
+      <c r="C49" t="s">
+        <v>62</v>
       </c>
       <c r="D49" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="C50" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="D50" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C51" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D51" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C52" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="D52" t="s">
-        <v>182</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C53" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="D53" t="s">
-        <v>54</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C54" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="D54" t="s">
-        <v>182</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C55" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="D55" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="C56" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="D56" t="s">
-        <v>54</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C57" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D57" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C58" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D58" t="s">
-        <v>54</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C59" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="D59" t="s">
-        <v>181</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C60" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D60" t="s">
-        <v>54</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C61" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="D61" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C62" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="D62" t="s">
-        <v>181</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C63" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="D63" t="s">
-        <v>54</v>
+        <v>168</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="D64" t="s">
-        <v>181</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C65" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D65" t="s">
-        <v>54</v>
+        <v>168</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C66" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D66" t="s">
-        <v>181</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C67" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D67" t="s">
-        <v>54</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C68" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D68" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C69" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D69" t="s">
-        <v>182</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C70" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D70" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C71" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D71" t="s">
-        <v>182</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="C72" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D72" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C73" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D73" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C74" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D74" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="C75" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D75" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="C76" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D76" t="s">
-        <v>54</v>
+        <v>167</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="C77" t="s">
         <v>106</v>
       </c>
       <c r="D77" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C78" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D78" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C79" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D79" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="C80" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D80" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C81" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D81" t="s">
-        <v>93</v>
+        <v>167</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C82" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D82" t="s">
-        <v>181</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C83" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D83" t="s">
-        <v>93</v>
+        <v>167</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
@@ -1915,32 +1858,32 @@
         <v>121</v>
       </c>
       <c r="C84" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D84" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C85" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="D85" t="s">
-        <v>181</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C86" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D86" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
@@ -1948,479 +1891,413 @@
         <v>124</v>
       </c>
       <c r="C87" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D87" t="s">
-        <v>181</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C88" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D88" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C89" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D89" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C90" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D90" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C91" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="D91" t="s">
-        <v>93</v>
+        <v>167</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C92" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D92" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C93" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D93" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C94" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D94" t="s">
-        <v>93</v>
+        <v>167</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C95" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D95" t="s">
-        <v>181</v>
+        <v>79</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C96" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D96" t="s">
-        <v>93</v>
+        <v>167</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>140</v>
-      </c>
-      <c r="C97" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D97" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>141</v>
-      </c>
-      <c r="C98" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D98" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>142</v>
-      </c>
-      <c r="C99" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D99" t="s">
-        <v>93</v>
+        <v>167</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>142</v>
-      </c>
-      <c r="C100" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D100" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>143</v>
-      </c>
-      <c r="C101" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D101" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>143</v>
-      </c>
-      <c r="C102" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D102" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D103" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
+        <v>140</v>
+      </c>
+      <c r="D104" t="s">
         <v>149</v>
-      </c>
-      <c r="D104" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
+        <v>141</v>
+      </c>
+      <c r="D105" t="s">
         <v>149</v>
-      </c>
-      <c r="D105" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D106" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D107" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D108" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D109" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="D110" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="D111" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="D112" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D113" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="D114" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D115" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="D116" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="D117" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="D118" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D119" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D120" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D121" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D122" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D123" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D124" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
+        <v>158</v>
+      </c>
+      <c r="D125" t="s">
         <v>166</v>
-      </c>
-      <c r="D125" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D126" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D127" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D128" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D129" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D130" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D131" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="D132" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D133" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D134" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
-        <v>175</v>
-      </c>
-      <c r="D135" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
-        <v>176</v>
-      </c>
-      <c r="D136" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
-        <v>177</v>
-      </c>
-      <c r="D137" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
-        <v>178</v>
-      </c>
-      <c r="D138" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
-        <v>179</v>
-      </c>
-      <c r="D139" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
-        <v>183</v>
-      </c>
-      <c r="D140" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/Navne.xlsx
+++ b/Navne.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SéamusPeareBartholdy\Documents\GitHub\ACH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D9DD57-86E5-47BC-95C6-F556BB4F0A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47342D31-00A9-4FB7-88A1-6D6877CC9A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="174">
   <si>
     <t>Spillere</t>
   </si>
@@ -375,9 +375,6 @@
     <t>J. Snedker</t>
   </si>
   <si>
-    <t>I. Fejerskov</t>
-  </si>
-  <si>
     <t>M. Bjerregaard</t>
   </si>
   <si>
@@ -403,9 +400,6 @@
   </si>
   <si>
     <t>Jakob Skov Snedker</t>
-  </si>
-  <si>
-    <t>Isac Bay Fejerskov</t>
   </si>
   <si>
     <t>Magne Flemming Bjerregaard</t>
@@ -879,10 +873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D134"/>
+  <dimension ref="A1:D132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88:XFD89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -939,12 +933,12 @@
         <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -975,7 +969,7 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -997,7 +991,7 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -1005,7 +999,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -1016,10 +1010,10 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -1047,7 +1041,7 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -1069,7 +1063,7 @@
         <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -1091,7 +1085,7 @@
         <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -1119,7 +1113,7 @@
         <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -1141,7 +1135,7 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -1163,7 +1157,7 @@
         <v>49</v>
       </c>
       <c r="D23" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -1230,7 +1224,7 @@
         <v>51</v>
       </c>
       <c r="D28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -1246,10 +1240,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C30" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D30" t="s">
         <v>25</v>
@@ -1257,13 +1251,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D31" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -1313,7 +1307,7 @@
         <v>55</v>
       </c>
       <c r="D35" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -1341,7 +1335,7 @@
         <v>56</v>
       </c>
       <c r="D37" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -1352,7 +1346,7 @@
         <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D38" t="s">
         <v>42</v>
@@ -1366,10 +1360,10 @@
         <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D39" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -1391,7 +1385,7 @@
         <v>58</v>
       </c>
       <c r="D41" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -1407,7 +1401,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D43" t="s">
         <v>42</v>
@@ -1443,7 +1437,7 @@
         <v>61</v>
       </c>
       <c r="D46" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -1451,7 +1445,7 @@
         <v>40</v>
       </c>
       <c r="C47" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D47" t="s">
         <v>42</v>
@@ -1462,10 +1456,10 @@
         <v>40</v>
       </c>
       <c r="C48" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D48" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -1520,7 +1514,7 @@
         <v>89</v>
       </c>
       <c r="D53" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
@@ -1553,7 +1547,7 @@
         <v>94</v>
       </c>
       <c r="D56" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -1575,7 +1569,7 @@
         <v>90</v>
       </c>
       <c r="D58" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
@@ -1597,7 +1591,7 @@
         <v>82</v>
       </c>
       <c r="D60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
@@ -1630,7 +1624,7 @@
         <v>83</v>
       </c>
       <c r="D63" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
@@ -1652,7 +1646,7 @@
         <v>84</v>
       </c>
       <c r="D65" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
@@ -1674,7 +1668,7 @@
         <v>86</v>
       </c>
       <c r="D67" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
@@ -1740,7 +1734,7 @@
         <v>101</v>
       </c>
       <c r="D73" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
@@ -1773,7 +1767,7 @@
         <v>104</v>
       </c>
       <c r="D76" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
@@ -1806,7 +1800,7 @@
         <v>108</v>
       </c>
       <c r="D79" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
@@ -1828,12 +1822,12 @@
         <v>109</v>
       </c>
       <c r="D81" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C82" t="s">
         <v>111</v>
@@ -1844,18 +1838,18 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C83" t="s">
         <v>111</v>
       </c>
       <c r="D83" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C84" t="s">
         <v>112</v>
@@ -1866,7 +1860,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C85" t="s">
         <v>20</v>
@@ -1877,7 +1871,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C86" t="s">
         <v>113</v>
@@ -1888,7 +1882,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C87" t="s">
         <v>114</v>
@@ -1899,7 +1893,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C88" t="s">
         <v>115</v>
@@ -1910,18 +1904,18 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C89" t="s">
         <v>115</v>
       </c>
       <c r="D89" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C90" t="s">
         <v>116</v>
@@ -1935,26 +1929,26 @@
         <v>126</v>
       </c>
       <c r="C91" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D91" t="s">
-        <v>167</v>
+        <v>79</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C92" t="s">
         <v>117</v>
       </c>
       <c r="D92" t="s">
-        <v>79</v>
+        <v>165</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C93" t="s">
         <v>118</v>
@@ -1965,51 +1959,45 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C94" t="s">
         <v>118</v>
       </c>
       <c r="D94" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>129</v>
-      </c>
-      <c r="C95" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="D95" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>129</v>
-      </c>
-      <c r="C96" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="D96" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D97" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D98" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
@@ -2017,7 +2005,7 @@
         <v>135</v>
       </c>
       <c r="D99" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
@@ -2025,7 +2013,7 @@
         <v>136</v>
       </c>
       <c r="D100" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
@@ -2033,7 +2021,7 @@
         <v>137</v>
       </c>
       <c r="D101" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
@@ -2041,7 +2029,7 @@
         <v>138</v>
       </c>
       <c r="D102" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
@@ -2049,7 +2037,7 @@
         <v>139</v>
       </c>
       <c r="D103" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
@@ -2057,7 +2045,7 @@
         <v>140</v>
       </c>
       <c r="D104" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
@@ -2065,7 +2053,7 @@
         <v>141</v>
       </c>
       <c r="D105" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
@@ -2073,7 +2061,7 @@
         <v>142</v>
       </c>
       <c r="D106" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
@@ -2081,47 +2069,47 @@
         <v>143</v>
       </c>
       <c r="D107" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="D108" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="D109" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D110" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="D111" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="D112" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
@@ -2129,15 +2117,15 @@
         <v>146</v>
       </c>
       <c r="D113" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D114" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
@@ -2145,15 +2133,15 @@
         <v>148</v>
       </c>
       <c r="D115" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D116" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
@@ -2161,7 +2149,7 @@
         <v>150</v>
       </c>
       <c r="D117" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
@@ -2169,7 +2157,7 @@
         <v>151</v>
       </c>
       <c r="D118" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
@@ -2177,7 +2165,7 @@
         <v>152</v>
       </c>
       <c r="D119" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
@@ -2185,7 +2173,7 @@
         <v>153</v>
       </c>
       <c r="D120" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
@@ -2193,7 +2181,7 @@
         <v>154</v>
       </c>
       <c r="D121" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
@@ -2201,7 +2189,7 @@
         <v>155</v>
       </c>
       <c r="D122" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
@@ -2209,31 +2197,31 @@
         <v>156</v>
       </c>
       <c r="D123" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="D124" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D125" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D126" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
@@ -2241,7 +2229,7 @@
         <v>159</v>
       </c>
       <c r="D127" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
@@ -2249,7 +2237,7 @@
         <v>160</v>
       </c>
       <c r="D128" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
@@ -2257,7 +2245,7 @@
         <v>161</v>
       </c>
       <c r="D129" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
@@ -2265,7 +2253,7 @@
         <v>162</v>
       </c>
       <c r="D130" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
@@ -2273,31 +2261,15 @@
         <v>163</v>
       </c>
       <c r="D131" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
+        <v>167</v>
+      </c>
+      <c r="D132" t="s">
         <v>164</v>
-      </c>
-      <c r="D132" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
-        <v>165</v>
-      </c>
-      <c r="D133" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
-        <v>169</v>
-      </c>
-      <c r="D134" t="s">
-        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/Navne.xlsx
+++ b/Navne.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SéamusPeareBartholdy\Documents\GitHub\ACH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47342D31-00A9-4FB7-88A1-6D6877CC9A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32D862E-E121-4179-888F-F63A19217D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="174">
   <si>
     <t>Spillere</t>
   </si>
@@ -873,10 +873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D132"/>
+  <dimension ref="A1:D138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88:XFD89"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1335,21 +1335,21 @@
         <v>56</v>
       </c>
       <c r="D37" t="s">
-        <v>166</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>131</v>
+        <v>56</v>
       </c>
       <c r="D38" t="s">
-        <v>42</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -1363,18 +1363,21 @@
         <v>131</v>
       </c>
       <c r="D39" t="s">
-        <v>166</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="B40" t="s">
+        <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>58</v>
+        <v>131</v>
       </c>
       <c r="D40" t="s">
-        <v>42</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -1385,34 +1388,37 @@
         <v>58</v>
       </c>
       <c r="D41" t="s">
-        <v>166</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D42" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>173</v>
+        <v>36</v>
+      </c>
+      <c r="C43" t="s">
+        <v>58</v>
       </c>
       <c r="D43" t="s">
-        <v>42</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D44" t="s">
         <v>42</v>
@@ -1420,10 +1426,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>39</v>
-      </c>
-      <c r="C45" t="s">
-        <v>61</v>
+        <v>173</v>
       </c>
       <c r="D45" t="s">
         <v>42</v>
@@ -1431,21 +1434,21 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D46" t="s">
-        <v>166</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C47" t="s">
-        <v>130</v>
+        <v>61</v>
       </c>
       <c r="D47" t="s">
         <v>42</v>
@@ -1453,10 +1456,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C48" t="s">
-        <v>130</v>
+        <v>61</v>
       </c>
       <c r="D48" t="s">
         <v>166</v>
@@ -1464,10 +1467,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="D49" t="s">
         <v>42</v>
@@ -1475,21 +1478,21 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="C50" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="D50" t="s">
-        <v>42</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C51" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="D51" t="s">
         <v>42</v>
@@ -1497,10 +1500,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C52" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D52" t="s">
         <v>42</v>
@@ -1508,21 +1511,21 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C53" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D53" t="s">
-        <v>165</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C54" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D54" t="s">
         <v>42</v>
@@ -1530,32 +1533,32 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C55" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D55" t="s">
-        <v>42</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C56" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D56" t="s">
-        <v>165</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C57" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D57" t="s">
         <v>42</v>
@@ -1563,10 +1566,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C58" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D58" t="s">
         <v>165</v>
@@ -1574,10 +1577,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C59" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D59" t="s">
         <v>42</v>
@@ -1585,32 +1588,32 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C60" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D60" t="s">
-        <v>165</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C61" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D61" t="s">
-        <v>42</v>
+        <v>165</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D62" t="s">
         <v>42</v>
@@ -1618,21 +1621,21 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D63" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C64" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D64" t="s">
         <v>42</v>
@@ -1640,43 +1643,43 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D65" t="s">
-        <v>166</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C66" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D66" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D67" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D68" t="s">
         <v>42</v>
@@ -1684,32 +1687,32 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D69" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D70" t="s">
-        <v>42</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D71" t="s">
         <v>42</v>
@@ -1717,98 +1720,98 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="D72" t="s">
-        <v>42</v>
+        <v>165</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="C73" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="D73" t="s">
-        <v>166</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C74" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="D74" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="C75" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="D75" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="C76" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D76" t="s">
-        <v>165</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C77" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D77" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C78" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D78" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C79" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D79" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="C80" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D80" t="s">
         <v>79</v>
@@ -1816,43 +1819,43 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C81" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D81" t="s">
-        <v>165</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C82" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D82" t="s">
-        <v>79</v>
+        <v>165</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C83" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D83" t="s">
-        <v>165</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C84" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D84" t="s">
         <v>79</v>
@@ -1860,21 +1863,21 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C85" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="D85" t="s">
-        <v>79</v>
+        <v>165</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C86" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D86" t="s">
         <v>79</v>
@@ -1882,21 +1885,21 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="C87" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D87" t="s">
-        <v>79</v>
+        <v>165</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C88" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D88" t="s">
         <v>79</v>
@@ -1904,10 +1907,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C89" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D89" t="s">
         <v>165</v>
@@ -1915,10 +1918,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C90" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D90" t="s">
         <v>79</v>
@@ -1926,10 +1929,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C91" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="D91" t="s">
         <v>79</v>
@@ -1937,21 +1940,21 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C92" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D92" t="s">
-        <v>165</v>
+        <v>79</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C93" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D93" t="s">
         <v>79</v>
@@ -1959,66 +1962,84 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C94" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D94" t="s">
-        <v>165</v>
+        <v>79</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>132</v>
+        <v>124</v>
+      </c>
+      <c r="C95" t="s">
+        <v>115</v>
       </c>
       <c r="D95" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>133</v>
+        <v>125</v>
+      </c>
+      <c r="C96" t="s">
+        <v>116</v>
       </c>
       <c r="D96" t="s">
-        <v>147</v>
+        <v>79</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>133</v>
+        <v>126</v>
+      </c>
+      <c r="C97" t="s">
+        <v>117</v>
       </c>
       <c r="D97" t="s">
-        <v>165</v>
+        <v>79</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>134</v>
+        <v>126</v>
+      </c>
+      <c r="C98" t="s">
+        <v>117</v>
       </c>
       <c r="D98" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>135</v>
+        <v>127</v>
+      </c>
+      <c r="C99" t="s">
+        <v>118</v>
       </c>
       <c r="D99" t="s">
-        <v>147</v>
+        <v>79</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>136</v>
+        <v>127</v>
+      </c>
+      <c r="C100" t="s">
+        <v>118</v>
       </c>
       <c r="D100" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D101" t="s">
         <v>147</v>
@@ -2026,7 +2047,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D102" t="s">
         <v>147</v>
@@ -2034,15 +2055,15 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D103" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D104" t="s">
         <v>147</v>
@@ -2050,7 +2071,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D105" t="s">
         <v>147</v>
@@ -2058,7 +2079,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D106" t="s">
         <v>147</v>
@@ -2066,7 +2087,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D107" t="s">
         <v>147</v>
@@ -2074,7 +2095,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="D108" t="s">
         <v>147</v>
@@ -2082,15 +2103,15 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="D109" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="D110" t="s">
         <v>147</v>
@@ -2098,7 +2119,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D111" t="s">
         <v>147</v>
@@ -2106,7 +2127,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D112" t="s">
         <v>147</v>
@@ -2114,7 +2135,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D113" t="s">
         <v>147</v>
@@ -2122,63 +2143,63 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="D114" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="D115" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="D116" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D117" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D118" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D119" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D120" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D121" t="s">
         <v>164</v>
@@ -2186,7 +2207,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D122" t="s">
         <v>164</v>
@@ -2194,7 +2215,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D123" t="s">
         <v>164</v>
@@ -2202,7 +2223,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="D124" t="s">
         <v>164</v>
@@ -2210,7 +2231,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D125" t="s">
         <v>164</v>
@@ -2218,7 +2239,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D126" t="s">
         <v>164</v>
@@ -2226,7 +2247,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D127" t="s">
         <v>164</v>
@@ -2234,7 +2255,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D128" t="s">
         <v>164</v>
@@ -2242,7 +2263,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D129" t="s">
         <v>164</v>
@@ -2250,7 +2271,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D130" t="s">
         <v>164</v>
@@ -2258,7 +2279,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D131" t="s">
         <v>164</v>
@@ -2266,9 +2287,57 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
+        <v>158</v>
+      </c>
+      <c r="D132" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>159</v>
+      </c>
+      <c r="D133" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>160</v>
+      </c>
+      <c r="D134" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>161</v>
+      </c>
+      <c r="D135" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>162</v>
+      </c>
+      <c r="D136" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>163</v>
+      </c>
+      <c r="D137" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
         <v>167</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D138" t="s">
         <v>164</v>
       </c>
     </row>

--- a/Navne.xlsx
+++ b/Navne.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SéamusPeareBartholdy\Documents\GitHub\ACH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32D862E-E121-4179-888F-F63A19217D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD0AB5E-C083-4356-9AF8-E8CD66CD05EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -393,9 +393,6 @@
     <t>Villads Bertelsen</t>
   </si>
   <si>
-    <t>Luca Thade Lund Larsen</t>
-  </si>
-  <si>
     <t>Birk Dalvad Cribb</t>
   </si>
   <si>
@@ -550,6 +547,9 @@
   </si>
   <si>
     <t>Alexander Boisen</t>
+  </si>
+  <si>
+    <t>Luca Larsen</t>
   </si>
 </sst>
 </file>
@@ -875,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -933,12 +933,12 @@
         <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -969,7 +969,7 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -991,7 +991,7 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -999,7 +999,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -1010,10 +1010,10 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -1041,7 +1041,7 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -1063,7 +1063,7 @@
         <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -1085,7 +1085,7 @@
         <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -1113,7 +1113,7 @@
         <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -1135,7 +1135,7 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -1157,7 +1157,7 @@
         <v>49</v>
       </c>
       <c r="D23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -1224,7 +1224,7 @@
         <v>51</v>
       </c>
       <c r="D28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -1240,10 +1240,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" t="s">
         <v>128</v>
-      </c>
-      <c r="C30" t="s">
-        <v>129</v>
       </c>
       <c r="D30" t="s">
         <v>25</v>
@@ -1251,13 +1251,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" t="s">
         <v>128</v>
       </c>
-      <c r="C31" t="s">
-        <v>129</v>
-      </c>
       <c r="D31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -1307,7 +1307,7 @@
         <v>55</v>
       </c>
       <c r="D35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -1349,7 +1349,7 @@
         <v>56</v>
       </c>
       <c r="D38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -1360,7 +1360,7 @@
         <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D39" t="s">
         <v>42</v>
@@ -1374,10 +1374,10 @@
         <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -1410,7 +1410,7 @@
         <v>58</v>
       </c>
       <c r="D43" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
@@ -1426,7 +1426,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D45" t="s">
         <v>42</v>
@@ -1462,7 +1462,7 @@
         <v>61</v>
       </c>
       <c r="D48" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -1470,7 +1470,7 @@
         <v>40</v>
       </c>
       <c r="C49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D49" t="s">
         <v>42</v>
@@ -1481,10 +1481,10 @@
         <v>40</v>
       </c>
       <c r="C50" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
@@ -1539,7 +1539,7 @@
         <v>89</v>
       </c>
       <c r="D55" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
@@ -1572,7 +1572,7 @@
         <v>94</v>
       </c>
       <c r="D58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
@@ -1605,7 +1605,7 @@
         <v>90</v>
       </c>
       <c r="D61" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
@@ -1627,7 +1627,7 @@
         <v>82</v>
       </c>
       <c r="D63" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
@@ -1671,7 +1671,7 @@
         <v>83</v>
       </c>
       <c r="D67" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
@@ -1704,7 +1704,7 @@
         <v>84</v>
       </c>
       <c r="D70" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
@@ -1726,7 +1726,7 @@
         <v>86</v>
       </c>
       <c r="D72" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
@@ -1803,7 +1803,7 @@
         <v>101</v>
       </c>
       <c r="D79" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
@@ -1836,7 +1836,7 @@
         <v>104</v>
       </c>
       <c r="D82" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
@@ -1869,7 +1869,7 @@
         <v>108</v>
       </c>
       <c r="D85" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
@@ -1891,7 +1891,7 @@
         <v>109</v>
       </c>
       <c r="D87" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
@@ -1913,7 +1913,7 @@
         <v>111</v>
       </c>
       <c r="D89" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
@@ -1929,7 +1929,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="C91" t="s">
         <v>20</v>
@@ -1940,7 +1940,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C92" t="s">
         <v>113</v>
@@ -1951,7 +1951,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C93" t="s">
         <v>114</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C94" t="s">
         <v>115</v>
@@ -1973,18 +1973,18 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C95" t="s">
         <v>115</v>
       </c>
       <c r="D95" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C96" t="s">
         <v>116</v>
@@ -1995,7 +1995,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C97" t="s">
         <v>117</v>
@@ -2006,18 +2006,18 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C98" t="s">
         <v>117</v>
       </c>
       <c r="D98" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C99" t="s">
         <v>118</v>
@@ -2028,317 +2028,317 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C100" t="s">
         <v>118</v>
       </c>
       <c r="D100" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D101" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D102" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D103" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D104" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D105" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D106" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D107" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D108" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D109" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D110" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D111" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D112" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D113" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D114" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D115" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D116" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D117" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D118" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
+        <v>145</v>
+      </c>
+      <c r="D119" t="s">
         <v>146</v>
-      </c>
-      <c r="D119" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D120" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D121" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D122" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D125" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D126" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D127" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D128" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D129" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D130" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D131" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D132" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D133" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D134" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D135" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D136" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
+        <v>162</v>
+      </c>
+      <c r="D137" t="s">
         <v>163</v>
-      </c>
-      <c r="D137" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D138" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/Navne.xlsx
+++ b/Navne.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SéamusPeareBartholdy\Documents\GitHub\ACH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD0AB5E-C083-4356-9AF8-E8CD66CD05EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB6918A-7D54-4D59-9107-6642B8C3C60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -549,7 +549,7 @@
     <t>Alexander Boisen</t>
   </si>
   <si>
-    <t>Luca Larsen</t>
+    <t>Luca Thade Lund Larsen</t>
   </si>
 </sst>
 </file>
@@ -876,7 +876,7 @@
   <dimension ref="A1:D138"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Navne.xlsx
+++ b/Navne.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SéamusPeareBartholdy\Documents\GitHub\ACH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB6918A-7D54-4D59-9107-6642B8C3C60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52809F51-3828-478F-BE4D-D130C4B3E9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Navne.xlsx
+++ b/Navne.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SéamusPeareBartholdy\Documents\GitHub\ACH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52809F51-3828-478F-BE4D-D130C4B3E9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B8D79B-0160-452B-90E3-B23B37C12608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="171">
   <si>
     <t>Spillere</t>
   </si>
@@ -114,9 +114,6 @@
     <t>Malthe Munch</t>
   </si>
   <si>
-    <t>Søren Albrecht</t>
-  </si>
-  <si>
     <t>Mathias Frederiksen</t>
   </si>
   <si>
@@ -174,9 +171,6 @@
     <t>17 Munch</t>
   </si>
   <si>
-    <t>15 Albrecht</t>
-  </si>
-  <si>
     <t>O. Bjerregaard</t>
   </si>
   <si>
@@ -199,9 +193,6 @@
   </si>
   <si>
     <t>L. Osmani</t>
-  </si>
-  <si>
-    <t>S. Albrecht Grabow</t>
   </si>
   <si>
     <t>L. Risager Kristensen</t>
@@ -873,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D138"/>
+  <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -894,7 +885,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -916,10 +907,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -927,18 +918,18 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -969,7 +960,7 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -991,7 +982,7 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -999,7 +990,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -1010,10 +1001,10 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D11" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -1041,7 +1032,7 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -1063,7 +1054,7 @@
         <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -1085,7 +1076,7 @@
         <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -1113,7 +1104,7 @@
         <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -1135,7 +1126,7 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -1143,7 +1134,7 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
         <v>25</v>
@@ -1154,18 +1145,18 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D24" t="s">
         <v>25</v>
@@ -1176,10 +1167,10 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D25" t="s">
         <v>25</v>
@@ -1190,10 +1181,10 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D26" t="s">
         <v>25</v>
@@ -1201,38 +1192,35 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>29</v>
       </c>
-      <c r="B28" t="s">
-        <v>44</v>
-      </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D28" t="s">
-        <v>165</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="C29" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="D29" t="s">
         <v>25</v>
@@ -1240,24 +1228,24 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C30" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D30" t="s">
-        <v>25</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>128</v>
+        <v>51</v>
       </c>
       <c r="D31" t="s">
-        <v>165</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -1265,35 +1253,38 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
       <c r="C33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D33" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D34" t="s">
-        <v>25</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -1301,41 +1292,41 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D35" t="s">
-        <v>165</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D36" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D37" t="s">
-        <v>25</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -1343,63 +1334,60 @@
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>56</v>
+        <v>127</v>
       </c>
       <c r="D38" t="s">
-        <v>165</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D39" t="s">
-        <v>42</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>35</v>
       </c>
-      <c r="B40" t="s">
-        <v>45</v>
-      </c>
       <c r="C40" t="s">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="D40" t="s">
-        <v>165</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C41" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D41" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C42" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D42" t="s">
-        <v>25</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -1407,29 +1395,29 @@
         <v>36</v>
       </c>
       <c r="C43" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D43" t="s">
-        <v>165</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>37</v>
-      </c>
-      <c r="C44" t="s">
-        <v>59</v>
+        <v>169</v>
       </c>
       <c r="D44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>172</v>
+        <v>37</v>
+      </c>
+      <c r="C45" t="s">
+        <v>57</v>
       </c>
       <c r="D45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
@@ -1437,21 +1425,21 @@
         <v>38</v>
       </c>
       <c r="C46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D47" t="s">
-        <v>42</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -1459,21 +1447,21 @@
         <v>39</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="D48" t="s">
-        <v>165</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C49" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D49" t="s">
-        <v>42</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -1481,384 +1469,384 @@
         <v>40</v>
       </c>
       <c r="C50" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="D50" t="s">
-        <v>165</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="C51" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="D51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" t="s">
         <v>77</v>
       </c>
-      <c r="C52" t="s">
-        <v>93</v>
-      </c>
       <c r="D52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C53" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D54" t="s">
-        <v>42</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D55" t="s">
-        <v>164</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C57" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D57" t="s">
-        <v>42</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C58" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D58" t="s">
-        <v>164</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C59" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D59" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C60" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D60" t="s">
-        <v>25</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C61" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D61" t="s">
-        <v>164</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D62" t="s">
-        <v>42</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D63" t="s">
-        <v>164</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D65" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D66" t="s">
-        <v>25</v>
+        <v>162</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D67" t="s">
-        <v>165</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C68" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D68" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D69" t="s">
-        <v>25</v>
+        <v>162</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D70" t="s">
-        <v>165</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D71" t="s">
-        <v>42</v>
+        <v>161</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C72" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D72" t="s">
-        <v>164</v>
+        <v>41</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C73" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C74" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C75" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="C76" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C77" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D77" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C78" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D78" t="s">
-        <v>25</v>
+        <v>162</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C79" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D79" t="s">
-        <v>165</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="C80" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D80" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C81" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D81" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
+        <v>102</v>
+      </c>
+      <c r="C82" t="s">
         <v>103</v>
       </c>
-      <c r="C82" t="s">
-        <v>104</v>
-      </c>
       <c r="D82" t="s">
-        <v>164</v>
+        <v>76</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
+        <v>104</v>
+      </c>
+      <c r="C83" t="s">
         <v>105</v>
       </c>
-      <c r="C83" t="s">
-        <v>106</v>
-      </c>
       <c r="D83" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C84" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D84" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
@@ -1866,479 +1854,468 @@
         <v>107</v>
       </c>
       <c r="C85" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D85" t="s">
-        <v>164</v>
+        <v>76</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C86" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D86" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C87" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D87" t="s">
-        <v>164</v>
+        <v>76</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C88" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D88" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C89" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D89" t="s">
-        <v>164</v>
+        <v>76</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="C90" t="s">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="D90" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c r="C91" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="D91" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C92" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D92" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C93" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D93" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D94" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C95" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D95" t="s">
-        <v>164</v>
+        <v>76</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C96" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D96" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C97" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D97" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C98" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D98" t="s">
-        <v>164</v>
+        <v>76</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C99" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D99" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>126</v>
-      </c>
-      <c r="C100" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="D100" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D101" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D102" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D103" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D104" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D105" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D106" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D107" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D108" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D109" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D110" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D111" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D112" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="D113" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D114" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D115" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="D116" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
+        <v>141</v>
+      </c>
+      <c r="D117" t="s">
         <v>143</v>
-      </c>
-      <c r="D117" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D118" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D119" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D120" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D121" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D122" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D123" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D124" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D125" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D126" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D127" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D128" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="D129" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="D130" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D131" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D132" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D133" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D134" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
+        <v>158</v>
+      </c>
+      <c r="D135" t="s">
         <v>160</v>
-      </c>
-      <c r="D135" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D136" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D137" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
-        <v>166</v>
-      </c>
-      <c r="D138" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/Navne.xlsx
+++ b/Navne.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SéamusPeareBartholdy\Documents\GitHub\ACH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B8D79B-0160-452B-90E3-B23B37C12608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDCBA10-3961-44C5-9EE4-680D703F8F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="168">
   <si>
     <t>Spillere</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Anders Asmussen</t>
   </si>
   <si>
-    <t>Jonas Kirkel</t>
-  </si>
-  <si>
     <t>Frederik Roslyng</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t>7 Ank</t>
   </si>
   <si>
-    <t>20 Jonas Kirkel</t>
-  </si>
-  <si>
     <t>A. Asmussen</t>
   </si>
   <si>
@@ -85,9 +79,6 @@
   </si>
   <si>
     <t>F. Roslyng</t>
-  </si>
-  <si>
-    <t>J. Kirkel</t>
   </si>
   <si>
     <t>L. Larsen</t>
@@ -864,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D137"/>
+  <dimension ref="A1:D135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -885,7 +876,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -896,143 +887,137 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -1040,10 +1025,10 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -1051,725 +1036,725 @@
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
       </c>
       <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D23" t="s">
-        <v>162</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
         <v>46</v>
       </c>
-      <c r="C25" t="s">
-        <v>48</v>
-      </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="D27" t="s">
-        <v>162</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="D28" t="s">
-        <v>25</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="D29" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>125</v>
+        <v>49</v>
       </c>
       <c r="D30" t="s">
-        <v>162</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D31" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D32" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
         <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D33" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
         <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D34" t="s">
-        <v>162</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D35" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="D36" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="D37" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C38" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="D38" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C39" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="D39" t="s">
-        <v>162</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C40" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D40" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D41" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42" t="s">
-        <v>55</v>
+        <v>166</v>
       </c>
       <c r="D42" t="s">
-        <v>162</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D43" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>169</v>
+        <v>35</v>
+      </c>
+      <c r="C44" t="s">
+        <v>55</v>
       </c>
       <c r="D44" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C45" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D45" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C46" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="D46" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C47" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="D47" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C48" t="s">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="D48" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="C49" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="D49" t="s">
-        <v>162</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D50" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D51" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D52" t="s">
-        <v>41</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D53" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C54" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D54" t="s">
-        <v>161</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C55" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D55" t="s">
-        <v>41</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D56" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C57" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D57" t="s">
-        <v>161</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D58" t="s">
-        <v>41</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D59" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D60" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D62" t="s">
-        <v>161</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D63" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C64" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D64" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D65" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D66" t="s">
-        <v>162</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C67" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D67" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C68" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D68" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C69" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D69" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C70" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D70" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C71" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D71" t="s">
-        <v>161</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C72" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D72" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C73" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D73" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="C74" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D74" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="C75" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D75" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C76" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D76" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="C77" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D77" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
@@ -1780,51 +1765,51 @@
         <v>98</v>
       </c>
       <c r="D78" t="s">
-        <v>162</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="C79" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D79" t="s">
-        <v>76</v>
+        <v>158</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
+        <v>99</v>
+      </c>
+      <c r="C80" t="s">
         <v>100</v>
       </c>
-      <c r="C80" t="s">
-        <v>101</v>
-      </c>
       <c r="D80" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C81" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D81" t="s">
-        <v>161</v>
+        <v>73</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
+        <v>101</v>
+      </c>
+      <c r="C82" t="s">
         <v>102</v>
       </c>
-      <c r="C82" t="s">
-        <v>103</v>
-      </c>
       <c r="D82" t="s">
-        <v>76</v>
+        <v>158</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
@@ -1832,10 +1817,10 @@
         <v>104</v>
       </c>
       <c r="C83" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D83" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
@@ -1843,327 +1828,321 @@
         <v>104</v>
       </c>
       <c r="C84" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D84" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C85" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D85" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C86" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D86" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C87" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D87" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="C88" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="D88" t="s">
-        <v>161</v>
+        <v>73</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C89" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D89" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="C90" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="D90" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C91" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D91" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C92" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D92" t="s">
-        <v>76</v>
+        <v>158</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C93" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D93" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C94" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D94" t="s">
-        <v>161</v>
+        <v>73</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C95" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D95" t="s">
-        <v>76</v>
+        <v>158</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C96" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D96" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C97" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D97" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>123</v>
-      </c>
-      <c r="C98" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D98" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>123</v>
-      </c>
-      <c r="C99" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="D99" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D100" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D101" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D102" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D103" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D104" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D105" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D106" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D107" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D108" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D109" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D110" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="D111" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="D112" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D113" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="D114" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="D115" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
+        <v>139</v>
+      </c>
+      <c r="D116" t="s">
         <v>140</v>
-      </c>
-      <c r="D116" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D117" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D118" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
@@ -2171,151 +2150,135 @@
         <v>142</v>
       </c>
       <c r="D119" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D120" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D121" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D122" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D123" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D124" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D125" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D126" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="D127" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D128" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="D129" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D130" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D131" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D132" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D133" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
+        <v>156</v>
+      </c>
+      <c r="D134" t="s">
         <v>157</v>
-      </c>
-      <c r="D134" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D135" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
-        <v>159</v>
-      </c>
-      <c r="D136" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
-        <v>163</v>
-      </c>
-      <c r="D137" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/Navne.xlsx
+++ b/Navne.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SéamusPeareBartholdy\Documents\GitHub\ACH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDCBA10-3961-44C5-9EE4-680D703F8F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23B7EB6-33BE-479D-93EC-A0413527B401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="168">
   <si>
     <t>Spillere</t>
   </si>
@@ -855,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D135"/>
+  <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1317,18 +1317,21 @@
         <v>124</v>
       </c>
       <c r="D37" t="s">
-        <v>159</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="B38" t="s">
+        <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="D38" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -1339,7 +1342,7 @@
         <v>52</v>
       </c>
       <c r="D39" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -1350,23 +1353,26 @@
         <v>52</v>
       </c>
       <c r="D40" t="s">
-        <v>159</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D41" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>166</v>
+        <v>33</v>
+      </c>
+      <c r="C42" t="s">
+        <v>53</v>
       </c>
       <c r="D42" t="s">
         <v>38</v>
@@ -1374,10 +1380,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" t="s">
-        <v>54</v>
+        <v>166</v>
       </c>
       <c r="D43" t="s">
         <v>38</v>
@@ -1385,10 +1388,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D44" t="s">
         <v>38</v>
@@ -1402,18 +1405,18 @@
         <v>55</v>
       </c>
       <c r="D45" t="s">
-        <v>159</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C46" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="D46" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -1424,15 +1427,15 @@
         <v>123</v>
       </c>
       <c r="D47" t="s">
-        <v>159</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C48" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="D48" t="s">
         <v>38</v>
@@ -1440,21 +1443,21 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="C49" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="D49" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C50" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D50" t="s">
         <v>38</v>
@@ -1462,10 +1465,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C51" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D51" t="s">
         <v>38</v>
@@ -1473,21 +1476,21 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C52" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D52" t="s">
-        <v>158</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C53" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D53" t="s">
         <v>38</v>
@@ -1495,32 +1498,32 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D54" t="s">
-        <v>38</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C55" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D55" t="s">
-        <v>158</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D56" t="s">
         <v>38</v>
@@ -1528,13 +1531,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D57" t="s">
-        <v>22</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
@@ -1545,26 +1548,26 @@
         <v>84</v>
       </c>
       <c r="D58" t="s">
-        <v>158</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D59" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D60" t="s">
         <v>158</v>
@@ -1572,10 +1575,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D61" t="s">
         <v>38</v>
@@ -1583,24 +1586,24 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C62" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D62" t="s">
-        <v>38</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C63" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D63" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
@@ -1611,29 +1614,29 @@
         <v>77</v>
       </c>
       <c r="D64" t="s">
-        <v>159</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D65" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C66" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D66" t="s">
-        <v>22</v>
+        <v>159</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
@@ -1644,37 +1647,37 @@
         <v>78</v>
       </c>
       <c r="D67" t="s">
-        <v>159</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D68" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C69" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D69" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C70" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D70" t="s">
         <v>38</v>
@@ -1682,21 +1685,21 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C71" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D71" t="s">
-        <v>38</v>
+        <v>158</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C72" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D72" t="s">
         <v>38</v>
@@ -1704,10 +1707,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C73" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D73" t="s">
         <v>38</v>
@@ -1715,10 +1718,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="C74" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D74" t="s">
         <v>38</v>
@@ -1726,13 +1729,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="C75" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D75" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
@@ -1743,48 +1746,48 @@
         <v>95</v>
       </c>
       <c r="D76" t="s">
-        <v>159</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="C77" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D77" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C78" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D78" t="s">
-        <v>73</v>
+        <v>159</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="C79" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D79" t="s">
-        <v>158</v>
+        <v>73</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C80" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D80" t="s">
         <v>73</v>
@@ -1792,32 +1795,32 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C81" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D81" t="s">
-        <v>73</v>
+        <v>158</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C82" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D82" t="s">
-        <v>158</v>
+        <v>73</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C83" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D83" t="s">
         <v>73</v>
@@ -1825,10 +1828,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C84" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D84" t="s">
         <v>158</v>
@@ -1836,10 +1839,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C85" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D85" t="s">
         <v>73</v>
@@ -1847,10 +1850,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C86" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D86" t="s">
         <v>158</v>
@@ -1858,10 +1861,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C87" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D87" t="s">
         <v>73</v>
@@ -1869,21 +1872,21 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>167</v>
+        <v>113</v>
       </c>
       <c r="C88" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="D88" t="s">
-        <v>73</v>
+        <v>158</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C89" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D89" t="s">
         <v>73</v>
@@ -1891,10 +1894,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="C90" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="D90" t="s">
         <v>73</v>
@@ -1902,10 +1905,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C91" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D91" t="s">
         <v>73</v>
@@ -1913,21 +1916,21 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C92" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D92" t="s">
-        <v>158</v>
+        <v>73</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C93" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D93" t="s">
         <v>73</v>
@@ -1935,32 +1938,32 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C94" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D94" t="s">
-        <v>73</v>
+        <v>158</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C95" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D95" t="s">
-        <v>158</v>
+        <v>73</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C96" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D96" t="s">
         <v>73</v>
@@ -1968,10 +1971,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C97" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D97" t="s">
         <v>158</v>
@@ -1979,31 +1982,37 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>125</v>
+        <v>120</v>
+      </c>
+      <c r="C98" t="s">
+        <v>112</v>
       </c>
       <c r="D98" t="s">
-        <v>140</v>
+        <v>73</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>126</v>
+        <v>120</v>
+      </c>
+      <c r="C99" t="s">
+        <v>112</v>
       </c>
       <c r="D99" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D100" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D101" t="s">
         <v>140</v>
@@ -2011,15 +2020,15 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D102" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D103" t="s">
         <v>140</v>
@@ -2027,7 +2036,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D104" t="s">
         <v>140</v>
@@ -2035,7 +2044,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D105" t="s">
         <v>140</v>
@@ -2043,7 +2052,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D106" t="s">
         <v>140</v>
@@ -2051,7 +2060,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D107" t="s">
         <v>140</v>
@@ -2059,7 +2068,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D108" t="s">
         <v>140</v>
@@ -2067,7 +2076,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D109" t="s">
         <v>140</v>
@@ -2075,7 +2084,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D110" t="s">
         <v>140</v>
@@ -2083,7 +2092,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="D111" t="s">
         <v>140</v>
@@ -2091,15 +2100,15 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="D112" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D113" t="s">
         <v>140</v>
@@ -2107,15 +2116,15 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="D114" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="D115" t="s">
         <v>140</v>
@@ -2123,7 +2132,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D116" t="s">
         <v>140</v>
@@ -2131,31 +2140,31 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D117" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D118" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D119" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D120" t="s">
         <v>157</v>
@@ -2163,7 +2172,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D121" t="s">
         <v>157</v>
@@ -2171,7 +2180,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D122" t="s">
         <v>157</v>
@@ -2179,7 +2188,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D123" t="s">
         <v>157</v>
@@ -2187,7 +2196,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D124" t="s">
         <v>157</v>
@@ -2195,7 +2204,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D125" t="s">
         <v>157</v>
@@ -2203,7 +2212,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D126" t="s">
         <v>157</v>
@@ -2211,7 +2220,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="D127" t="s">
         <v>157</v>
@@ -2219,7 +2228,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D128" t="s">
         <v>157</v>
@@ -2227,7 +2236,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="D129" t="s">
         <v>157</v>
@@ -2235,7 +2244,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D130" t="s">
         <v>157</v>
@@ -2243,7 +2252,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D131" t="s">
         <v>157</v>
@@ -2251,7 +2260,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D132" t="s">
         <v>157</v>
@@ -2259,7 +2268,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D133" t="s">
         <v>157</v>
@@ -2267,7 +2276,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D134" t="s">
         <v>157</v>
@@ -2275,9 +2284,25 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
+        <v>155</v>
+      </c>
+      <c r="D135" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>156</v>
+      </c>
+      <c r="D136" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
         <v>160</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D137" t="s">
         <v>157</v>
       </c>
     </row>
